--- a/app/src/main/java/com/renfei/mylottery/file/乐彩网.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/乐彩网.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E16DDC-A29E-4046-B6E1-5B531DFCDA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A0E41-ED8E-4133-82DD-433146B9895A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="252" windowWidth="18324" windowHeight="12108" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3D杀一码" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>期号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,6 +301,14 @@
   </si>
   <si>
     <t>036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95D5944-9B0F-41BC-ACBC-40B038DF1633}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -805,9 +813,57 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1147,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1270,9 +1326,57 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">

--- a/app/src/main/java/com/renfei/mylottery/file/乐彩网.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/乐彩网.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A0E41-ED8E-4133-82DD-433146B9895A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB4E227-A103-4B10-BB94-B152B16D062A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="252" windowWidth="18324" windowHeight="12108" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="93">
   <si>
     <t>期号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -309,6 +309,14 @@
   </si>
   <si>
     <t>28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>672</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>675</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -817,6 +825,9 @@
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D3" s="1">
         <v>9</v>
       </c>
@@ -862,7 +873,7 @@
       <c r="R3" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1204,7 +1215,7 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1330,6 +1341,9 @@
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C3" s="1">
         <v>4</v>
       </c>
@@ -1375,7 +1389,7 @@
       <c r="Q3" s="1">
         <v>6</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="6" t="s">
         <v>90</v>
       </c>
     </row>
